--- a/src/testData/TransferAColleague.xlsx
+++ b/src/testData/TransferAColleague.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\INE12400939\Downloads\git clone\HireAColleague\src\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{693201F8-E0CD-4AED-9781-241AA4CC9C13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9719B968-82C0-4379-B551-0DBE9EBCCA72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -358,7 +358,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -383,7 +383,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>15500517</v>
+        <v>15500518</v>
       </c>
       <c r="B2" s="1">
         <v>45718</v>
